--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728152</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728152</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959667984.3596534</v>
+        <v>40009853.24718209</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8633.922703901722</v>
+        <v>976710.2878287355</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16059.04354529995</v>
+        <v>1763820.938036607</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23484.16438669818</v>
+        <v>2550931.588244479</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30930.71161315914</v>
+        <v>3338042.238452351</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38377.25883962012</v>
+        <v>4125152.888660224</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45823.80606608109</v>
+        <v>4912263.538868095</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53270.35329254204</v>
+        <v>5699374.189075964</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60716.90051900301</v>
+        <v>6486484.839283831</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68163.44774546397</v>
+        <v>7273595.4894917</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75609.99497192435</v>
+        <v>8060706.139699569</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83056.54219838529</v>
+        <v>8847816.789907444</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90503.08942484623</v>
+        <v>9634927.440115321</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97949.63665130717</v>
+        <v>10422038.0903232</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105396.1838777681</v>
+        <v>11209148.74053108</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>112842.731104229</v>
+        <v>11996259.39073895</v>
       </c>
     </row>
   </sheetData>
